--- a/outputs/complete_lists/Older Adults/OA S010.xlsx
+++ b/outputs/complete_lists/Older Adults/OA S010.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amuller\Desktop\Alana\UA\R_projects\inflatable-project\outputs\complete_lists\Older Adults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB1EB44-55EB-4E70-BAC9-B5721363A813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4665CF70-337B-4719-880A-492A1F92311D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="2010" windowWidth="21260" windowHeight="19790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6350" yWindow="5770" windowWidth="31280" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ten_lists" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -450,9 +449,6 @@
     <t>no walk/diff</t>
   </si>
   <si>
-    <t>S009 OA</t>
-  </si>
-  <si>
     <t>C11</t>
   </si>
   <si>
@@ -472,6 +468,9 @@
   </si>
   <si>
     <t>start SD</t>
+  </si>
+  <si>
+    <t>S010 OA</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1330,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1351,7 +1350,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1359,13 +1358,13 @@
         <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
         <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1509,13 +1508,13 @@
         <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I10" t="s">
         <v>135</v>
       </c>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1622,7 +1621,7 @@
         <v>93</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>95</v>
@@ -1648,7 +1647,7 @@
         <v>96</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>97</v>
@@ -1659,13 +1658,13 @@
         <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I17" t="s">
         <v>137</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1780,7 +1779,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
@@ -1809,13 +1808,13 @@
         <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I24" t="s">
         <v>136</v>
       </c>
       <c r="K24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1942,7 +1941,7 @@
         <v>60</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>118</v>
@@ -1959,13 +1958,13 @@
         <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I31" t="s">
         <v>135</v>
       </c>
       <c r="K31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -2092,7 +2091,7 @@
         <v>73</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>132</v>
